--- a/plantilla-reporte-ventas.xlsx
+++ b/plantilla-reporte-ventas.xlsx
@@ -22,10 +22,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t xml:space="preserve">
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SIGLO DEL HOMBRE EDITORES S.A
+NIT. 800.154.368-8
 REPORTE DE VENTAS POR REFERENCIA
-SIGLO DEL HOMBRE EDITORES S.A
-NIT. 800.154.368-8</t>
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Periodo: Junio 1 de 2023 a Junio 30 de 2023 - VENTAS NACIONALES    </t>
@@ -71,9 +90,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,6 +114,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -216,7 +241,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -241,7 +266,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,9 +386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1403280</xdr:colOff>
+      <xdr:colOff>1402200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -377,7 +402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="651240" y="533520"/>
-          <a:ext cx="752040" cy="748080"/>
+          <a:ext cx="750960" cy="747000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -400,7 +425,11 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -498,6 +527,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="0"/>
+    </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="13"/>
     </row>
